--- a/Data/Formal cost documentation.xlsx
+++ b/Data/Formal cost documentation.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC525C0A-04BE-4EB0-897C-906C48D4AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C2DC19-4713-4954-8741-C5162C364264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" xr2:uid="{C04D1BBF-36C9-4710-9AB8-19BFD7E4C102}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C04D1BBF-36C9-4710-9AB8-19BFD7E4C102}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vesta MAIS Investeringskosten" sheetId="3" r:id="rId2"/>
+    <sheet name="Vesta efficienties" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="331">
   <si>
     <t>Heat Installations household</t>
   </si>
@@ -256,16 +259,788 @@
   </si>
   <si>
     <t>Ecofys (2015) - ECN profiles</t>
+  </si>
+  <si>
+    <t>K_kW_min</t>
+  </si>
+  <si>
+    <t>K_kW_max</t>
+  </si>
+  <si>
+    <t>MWth_min</t>
+  </si>
+  <si>
+    <t>JaarKosten</t>
+  </si>
+  <si>
+    <t>CO2_2010</t>
+  </si>
+  <si>
+    <t>CO2_2020</t>
+  </si>
+  <si>
+    <t>CO2_2030</t>
+  </si>
+  <si>
+    <t>CO2_2040</t>
+  </si>
+  <si>
+    <t>CO2_2050</t>
+  </si>
+  <si>
+    <t>NOx_2010</t>
+  </si>
+  <si>
+    <t>NOx_2020</t>
+  </si>
+  <si>
+    <t>NOx_2030</t>
+  </si>
+  <si>
+    <t>NOx_2040</t>
+  </si>
+  <si>
+    <t>NOx_2050</t>
+  </si>
+  <si>
+    <t>SO2_2010</t>
+  </si>
+  <si>
+    <t>SO2_2020</t>
+  </si>
+  <si>
+    <t>SO2_2030</t>
+  </si>
+  <si>
+    <t>SO2_2040</t>
+  </si>
+  <si>
+    <t>SO2_2050</t>
+  </si>
+  <si>
+    <t>VOS_2010</t>
+  </si>
+  <si>
+    <t>VOS_2020</t>
+  </si>
+  <si>
+    <t>VOS_2030</t>
+  </si>
+  <si>
+    <t>VOS_2040</t>
+  </si>
+  <si>
+    <t>VOS_2050</t>
+  </si>
+  <si>
+    <t>TS_2010</t>
+  </si>
+  <si>
+    <t>TS_2020</t>
+  </si>
+  <si>
+    <t>TS_2030</t>
+  </si>
+  <si>
+    <t>TS_2040</t>
+  </si>
+  <si>
+    <t>TS_2050</t>
+  </si>
+  <si>
+    <t>STEG</t>
+  </si>
+  <si>
+    <t>Kolen</t>
+  </si>
+  <si>
+    <t>Gasmotor</t>
+  </si>
+  <si>
+    <t>Gasturbine</t>
+  </si>
+  <si>
+    <t>Conventioneel</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Raffinaderij</t>
+  </si>
+  <si>
+    <t>KVSTEG</t>
+  </si>
+  <si>
+    <t>AVI</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>WijkWKK</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>BioWKK</t>
+  </si>
+  <si>
+    <t>HulpKetel</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>hWP</t>
+  </si>
+  <si>
+    <t>mWKK</t>
+  </si>
+  <si>
+    <t>Heat Loss district heating</t>
+  </si>
+  <si>
+    <t>LT-heat</t>
+  </si>
+  <si>
+    <t>MT-heat</t>
+  </si>
+  <si>
+    <t>https://www.rvo.nl/sites/default/files/2019/04/Functioneel%20ontwerp%20LT-warmtenetten.pdf</t>
+  </si>
+  <si>
+    <t>CE Delft Validatie Vesta Mais</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Eenheid</t>
+  </si>
+  <si>
+    <t>Waarde</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_HR_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansluiting HR en Vr-ketels woningen</t>
+  </si>
+  <si>
+    <t>€/Aansl</t>
+  </si>
+  <si>
+    <t>Arcadis6</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_HR_w</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansluiting HR en Vr-ketels woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_HR_u</t>
+  </si>
+  <si>
+    <t>Kosten per kilowatt HR en Vr-ketels utiliteit en GLTB</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eWPlw_w</t>
+  </si>
+  <si>
+    <t>Minimale kosten per aansluiting lucht-WP woningen</t>
+  </si>
+  <si>
+    <t>Validatiesessies5</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eWPlw_w</t>
+  </si>
+  <si>
+    <t>Maximale kosten per aansluiting lucht-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_eWPlw_w</t>
+  </si>
+  <si>
+    <t>Minimale kosten per kilowatt lucht-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_eWPlw_w</t>
+  </si>
+  <si>
+    <t>Maximale kosten per kilowatt lucht-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eWPlw_u</t>
+  </si>
+  <si>
+    <t>Minimale kosten per aansluiting lucht-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Memo ECW4</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eWPlw_u</t>
+  </si>
+  <si>
+    <t>Maximale kosten per aansluiting lucht-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_eWPlw_u</t>
+  </si>
+  <si>
+    <t>Minimale kosten per kilowatt lucht-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_eWPlw_u</t>
+  </si>
+  <si>
+    <t>Maximale kosten per kilowatt lucht-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eWPbw_w</t>
+  </si>
+  <si>
+    <t>Minimale kosten per aansluiting bodem-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eWPbw_w</t>
+  </si>
+  <si>
+    <t>Maximale kosten per aansluiting bodem-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_eWPbw_w</t>
+  </si>
+  <si>
+    <t>Minimale kosten per kW bodem-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_eWPbw_w</t>
+  </si>
+  <si>
+    <t>Maximale kosten per kW bodem-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eWPbw_uK</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansl. bodem-WP utiliteit (&lt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eWPbw_uK</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansl. bodem-WP utiliteit (&lt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_eWPbw_uK</t>
+  </si>
+  <si>
+    <t>Min. Kosten per kW bodem-WP utiliteit (&lt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_eWPbw_uK</t>
+  </si>
+  <si>
+    <t>Max. Kosten per kW bodem-WP utiliteit (&lt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eWPbw_uG</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansl. bodem-WP utiliteit (&gt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eWPbw_uG</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansl. bodem-WP utiliteit (&gt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_eWPbw_uG</t>
+  </si>
+  <si>
+    <t>Min. Kosten per kW bodem-WP utiliteit (&gt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_eWPbw_uG</t>
+  </si>
+  <si>
+    <t>Max. Kosten per kW bodem-WP utiliteit (&gt; 100 kW)</t>
+  </si>
+  <si>
+    <t>Ki_asl_eWPll_min_w</t>
+  </si>
+  <si>
+    <t>Min. kosten per aansluiting ventilatie-WP woningen</t>
+  </si>
+  <si>
+    <t>FO Conversie1</t>
+  </si>
+  <si>
+    <t>Ki_asl_eWPll_max_w</t>
+  </si>
+  <si>
+    <t>Max. kosten per aansluiting ventilatie-WP woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_eWPll_min_u</t>
+  </si>
+  <si>
+    <t>Minimale kosten per m2 ventilatie-WP utiliteit</t>
+  </si>
+  <si>
+    <t>€/m2</t>
+  </si>
+  <si>
+    <t>Ki_opp_eWPll_max_u</t>
+  </si>
+  <si>
+    <t>Maximale kosten per m2 ventilatie-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_pellet</t>
+  </si>
+  <si>
+    <t>Min. kosten per aansluiting Pelletkachels wonen/util.</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_pellet</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_bioketel_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansluiting biomassaketels woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_bioketel_w</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansluiting biomassaketels woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_bioketel_u</t>
+  </si>
+  <si>
+    <t>Kosten per vierkante meter biomassaketels utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_opp_IR</t>
+  </si>
+  <si>
+    <t>Kosten per vierkante meter infraroodpanelen</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_H2R_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansluiting waterstofketel woningen</t>
+  </si>
+  <si>
+    <t>Notitie PBL H22</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_H2R_w</t>
+  </si>
+  <si>
+    <t>Ki_cap_H2R_u</t>
+  </si>
+  <si>
+    <t>Kosten per kilowatt waterstofketel utiliteit</t>
+  </si>
+  <si>
+    <t>CE Delft H23</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_eBoiler_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansl. elektrische boilers woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_eBoiler_w</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansl. elektrische boilers woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_eBoiler_u</t>
+  </si>
+  <si>
+    <t>Kosten per vierkante meter elektrische boilers utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_doorstroom_w</t>
+  </si>
+  <si>
+    <t>Kosten per aansluiting doorstroomapparaat woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_doorstroom_u</t>
+  </si>
+  <si>
+    <t>Kosten per m2 doorstroomapparaat utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_mWKK_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansluiting Micro-WKK woningen</t>
+  </si>
+  <si>
+    <t>CE Delft FO 3.07</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_mWKK_w</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansluiting Micro-WKK woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_min_mWKK_u</t>
+  </si>
+  <si>
+    <t>Min. Kosten per vierkante meter Micro-WKK utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_EWV_w</t>
+  </si>
+  <si>
+    <t>Min. Elektrische Weerstandsverwarming woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_EWV_w</t>
+  </si>
+  <si>
+    <t>Max. Elektrische Weerstandsverwarming woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_max_EWV_u</t>
+  </si>
+  <si>
+    <t>Kosten Elektrische Weerstandsverwarming utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_Airco_w</t>
+  </si>
+  <si>
+    <t>Min. Kosten per aansluiting airconditioners woningen</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_Airco_w</t>
+  </si>
+  <si>
+    <t>Max. Kosten per aansluiting airconditioners woningen</t>
+  </si>
+  <si>
+    <t>Ki_opp_Airco_u</t>
+  </si>
+  <si>
+    <t>Kosten per vierkante meter airconditioners utiliteit</t>
+  </si>
+  <si>
+    <t>Ki_asl_BasisHWP_w</t>
+  </si>
+  <si>
+    <t>Kosten per aansl. lucht-WP hybride situatie woningen</t>
+  </si>
+  <si>
+    <t>Ki_cap_BasisHWP_w</t>
+  </si>
+  <si>
+    <t>Kosten per kW lucht-WP in hybride situatie woningen</t>
+  </si>
+  <si>
+    <t>AT30 (BodemWP)</t>
+  </si>
+  <si>
+    <t>Aandeel BodemWP afgeschreven over 30 jaar</t>
+  </si>
+  <si>
+    <t>aandeel</t>
+  </si>
+  <si>
+    <t>Max. kosten per aansluiting Pelletkachels  wonen/util.</t>
+  </si>
+  <si>
+    <t>¹ Functioneel ontwerp conversietechnieken, opgesteld door CE Delft</t>
+  </si>
+  <si>
+    <t>² Nico Hoogervorst, notitie waterstof t.b.v. Startanalyse 2020</t>
+  </si>
+  <si>
+    <t>³ Rapport: Parameters Waterstof in Vesta MAIS, opgesteld door CE Delft</t>
+  </si>
+  <si>
+    <t>⁴ Memo investeringskosten warmtepompen utiliteit, Expertise Centrum Warmte.</t>
+  </si>
+  <si>
+    <t>⁵ Vastgesteld in samenwerking met RVO i.h.k.v. de validatiesessies Startanalyse in 2019 met inp</t>
+  </si>
+  <si>
+    <t>⁶ Afgeleid door PBL van de Arcadis kostenkentallen database 2018</t>
+  </si>
+  <si>
+    <t>⁷ Deze waarden zijn eerder vastgesteld door CE Delft, zie het Functioneel Ontwerp 3.0.</t>
+  </si>
+  <si>
+    <t>Waarde1</t>
+  </si>
+  <si>
+    <t>SPF_rv_A (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor RV in woningen met label A+</t>
+  </si>
+  <si>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>Combinatie2</t>
+  </si>
+  <si>
+    <t>SPF_rv_B (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor RV in woningen met label B</t>
+  </si>
+  <si>
+    <t>SPF_rv_C (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor RV in woningen met label C</t>
+  </si>
+  <si>
+    <t>SPF_rv_x (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor RV woningen, overige labels</t>
+  </si>
+  <si>
+    <t>SPF_tw (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor tapwater in woningen</t>
+  </si>
+  <si>
+    <t>SPF_k (eWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor koudeproductie in woningen</t>
+  </si>
+  <si>
+    <t>SPF_rv (eWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor ruimteverwarming utiliteit</t>
+  </si>
+  <si>
+    <t>FO conversie3</t>
+  </si>
+  <si>
+    <t>SPF_k (eWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor tapwater in utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_tw (eWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Lucht-WP voor koudeproductie in utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_rv_A (eWP_bw)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor RV in woningen label A+</t>
+  </si>
+  <si>
+    <t>SPF_rv_B (eWP_bw)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor RV in woningen label B</t>
+  </si>
+  <si>
+    <t>SPF_rv_C (eWP_bw)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor RV in woningen label C</t>
+  </si>
+  <si>
+    <t>SPF_tw (eWP_bw)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor tapwater in woningen</t>
+  </si>
+  <si>
+    <t>SPF_k (eWP_bw)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor koudeproductie woningen</t>
+  </si>
+  <si>
+    <t>SPF_rv (eWP_bw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor ruimteverwarming utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_tw (eWP_bw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor tapwater in utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_k (eWP_bw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency Bodem-WP voor koudeproductie in utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_rv (HR/VR_ketel_w)</t>
+  </si>
+  <si>
+    <t>Efficiency gasketels ruimteverwarming in woningen4</t>
+  </si>
+  <si>
+    <t>SPF_tw (HR/VR_ketel_w)</t>
+  </si>
+  <si>
+    <t>Efficiency gasketels warm tapwater in woningen4</t>
+  </si>
+  <si>
+    <t>SPF_rv (HR/VR_ketel_u)</t>
+  </si>
+  <si>
+    <t>Efficiency gasketels ruimteverwarming in utiliteit4</t>
+  </si>
+  <si>
+    <t>SPF_tw (HR/VR_ketel_u)</t>
+  </si>
+  <si>
+    <t>Efficiency gasketels warm tapwater in utiliteit4</t>
+  </si>
+  <si>
+    <t>eEffect_cap gasketel6</t>
+  </si>
+  <si>
+    <t>Jaarlijkse pompenergie gasketels capaciteitsafhankelijk</t>
+  </si>
+  <si>
+    <t>GJ / kW</t>
+  </si>
+  <si>
+    <t>CE Delft FO 3.05</t>
+  </si>
+  <si>
+    <t>SPF_tw (H2-ketel)</t>
+  </si>
+  <si>
+    <t>Efficiency waterstofketels tapwaterproductie</t>
+  </si>
+  <si>
+    <t>Notitie PBL H27</t>
+  </si>
+  <si>
+    <t>SPF_rv (H2-ketel)</t>
+  </si>
+  <si>
+    <t>Efficiency waterstofketels ruimteverwarming</t>
+  </si>
+  <si>
+    <t>SPF_tw (hWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency hybride-WP utiliteit voor warm tapwater</t>
+  </si>
+  <si>
+    <t>ECW8</t>
+  </si>
+  <si>
+    <t>SPF_rv (hWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency hybride-WP utiliteit voor ruimteverwarming</t>
+  </si>
+  <si>
+    <t>SPF_k (hWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Efficiency hybride-WP utiliteit voor koudeproductie</t>
+  </si>
+  <si>
+    <t>SPF_rv (hWP_lw)</t>
+  </si>
+  <si>
+    <t>Efficiency hybride-WP woningen ruimteverwarming</t>
+  </si>
+  <si>
+    <t>P_vol (hWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Aandeel elektrisch op totaal RV hybride-WP utiliteit</t>
+  </si>
+  <si>
+    <t>P_vol (hWP_lw)</t>
+  </si>
+  <si>
+    <t>Aandeel elektrisch op totaal RV hybride-WP woningen</t>
+  </si>
+  <si>
+    <t>P_cap (hWP_lw_u)</t>
+  </si>
+  <si>
+    <t>Dimensionering hybride-WP basislast woningen</t>
+  </si>
+  <si>
+    <t>P_cap (hWP_lw)</t>
+  </si>
+  <si>
+    <t>Dimensionering hybride-WP basislast utiliteit</t>
+  </si>
+  <si>
+    <t>SPF_k (airco)</t>
+  </si>
+  <si>
+    <t>Efficiency airconditioners voor koudeproductie</t>
+  </si>
+  <si>
+    <t>SPF_rv (EWV)</t>
+  </si>
+  <si>
+    <t>Efficiency weerstandsverwarming warmteproductie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +1077,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +1120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,18 +1137,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -656,25 +1500,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E2183-9F65-4B01-AE20-21808FC791C0}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +1547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -732,7 +1576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -761,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -790,7 +1634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -819,7 +1663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -848,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -862,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -876,7 +1720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -890,12 +1734,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -921,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -947,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -973,7 +1817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -999,7 +1843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1013,12 +1857,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1069,7 +1913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1086,7 +1930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1103,7 +1947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1120,12 +1964,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1148,7 +1992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +2015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1194,7 +2038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1217,7 +2061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1240,7 +2084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1263,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1286,7 +2130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1309,7 +2153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1332,7 +2176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1355,7 +2199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +2222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1401,7 +2245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1424,7 +2268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1447,7 +2291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1470,7 +2314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1493,12 +2337,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -1515,7 +2359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1532,7 +2376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1549,7 +2393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1566,7 +2410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1583,7 +2427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1598,6 +2442,45 @@
       </c>
       <c r="E47" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1605,4 +2488,2489 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CDBEF-36EF-4CEC-84F7-B45244D9C8D5}">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="17" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1692.19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1859.5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="10">
+        <v>79.66</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5359</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4637</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="10">
+        <v>320</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="10">
+        <v>500</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3768.75</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="10">
+        <v>6281.25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="10">
+        <v>555</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="10">
+        <v>925</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4628</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8460</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="10">
+        <v>899</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="10">
+        <v>753</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5257</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="10">
+        <v>8761</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1170</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1950</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="10">
+        <v>153857</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="10">
+        <v>256428</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="10">
+        <v>293</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="10">
+        <v>488</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2975.21</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4795.3900000000003</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13.77</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="10">
+        <v>44.08</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1074.3800000000001</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3305.79</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="10">
+        <v>5331</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="10">
+        <v>17716.150000000001</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="10">
+        <v>40.9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="10">
+        <v>371.9</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1792.19</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2359.5</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="10">
+        <v>95.59</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1112</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1774.85</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="10">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="10">
+        <v>826.45</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5.51</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="10">
+        <v>9504.1299999999992</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="10">
+        <v>16963.310000000001</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="10">
+        <v>88</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1487.6</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3140.5</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="10">
+        <v>15.43</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1343</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2025</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="10">
+        <v>11.23</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2315</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="10">
+        <v>250</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A55:F55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D04D9-CF7A-45A7-AFCB-3954E118D7FC}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="21.88671875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="10">
+        <v>466</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="10">
+        <v>381</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="10">
+        <v>339</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="10">
+        <v>339</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="10">
+        <v>220</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="10">
+        <v>400</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="10">
+        <v>339</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="10">
+        <v>220</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="10">
+        <v>400</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="10">
+        <v>563</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="10">
+        <v>407</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="10">
+        <v>361</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="10">
+        <v>250</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="10">
+        <v>800</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="10">
+        <v>361</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="10">
+        <v>250</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="10">
+        <v>800</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="10">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="10">
+        <v>72</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="10">
+        <v>104</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="10">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="10">
+        <v>72</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="10">
+        <v>110</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="10">
+        <v>220</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="10">
+        <v>342</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="10">
+        <v>400</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="10">
+        <v>320</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="10">
+        <v>60</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="10">
+        <v>78</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="10">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="10">
+        <v>25</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="10">
+        <v>350</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="10">
+        <v>100</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2DB6F2-3CCE-430A-A7DE-00408617A6A3}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1800</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>185</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>175</v>
+      </c>
+      <c r="C6">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>275</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>175</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.42</v>
+      </c>
+      <c r="V13">
+        <v>0.42</v>
+      </c>
+      <c r="W13">
+        <v>0.42</v>
+      </c>
+      <c r="X13">
+        <v>0.42</v>
+      </c>
+      <c r="Y13">
+        <v>0.42</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>1523</v>
+      </c>
+      <c r="C14">
+        <v>1523</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>415</v>
+      </c>
+      <c r="C15">
+        <v>415</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>49</v>
+      </c>
+      <c r="M15">
+        <v>49</v>
+      </c>
+      <c r="N15">
+        <v>49</v>
+      </c>
+      <c r="O15">
+        <v>49</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <v>0.1</v>
+      </c>
+      <c r="T15">
+        <v>0.1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>800</v>
+      </c>
+      <c r="C16">
+        <v>1800</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Formal cost documentation.xlsx
+++ b/Data/Formal cost documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C2DC19-4713-4954-8741-C5162C364264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00821EE-6191-45A0-BDC4-C0156FEE102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C04D1BBF-36C9-4710-9AB8-19BFD7E4C102}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" xr2:uid="{C04D1BBF-36C9-4710-9AB8-19BFD7E4C102}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="337">
   <si>
     <t>Heat Installations household</t>
   </si>
@@ -1030,6 +1030,24 @@
   </si>
   <si>
     <t>Efficiency weerstandsverwarming warmteproductie</t>
+  </si>
+  <si>
+    <t>Elektrisch koken totalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas koken totaal </t>
+  </si>
+  <si>
+    <t>CE Delft</t>
+  </si>
+  <si>
+    <t>https://ce.nl/wp-content/uploads/2021/04/33_Factsheet-Elektrisch-koken_DEF.pdf</t>
+  </si>
+  <si>
+    <t>kWh/jaar</t>
+  </si>
+  <si>
+    <t>m3/jaar</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1056,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1168,9 +1186,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1181,8 +1196,11 @@
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1500,25 +1518,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E2183-9F65-4B01-AE20-21808FC791C0}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1734,12 +1752,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1857,12 +1875,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1896,7 +1914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1964,12 +1982,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1992,7 +2010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +2033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2084,7 +2102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2176,7 +2194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2222,7 +2240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2245,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2337,12 +2355,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2359,7 +2377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2376,7 +2394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2444,7 +2462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -2481,6 +2499,40 @@
       </c>
       <c r="D51" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>335</v>
+      </c>
+      <c r="D53" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2498,1025 +2550,1025 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17" style="11" customWidth="1"/>
+    <col min="1" max="5" width="17" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>1692.19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>1859.5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>79.66</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>5359</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>4637</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>320</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>500</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>3768.75</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>6281.25</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>555</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>925</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>4628</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>8460</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>899</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>753</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>5257</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>8761</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>1170</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>1950</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>153857</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>256428</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>293</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>488</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>2975.21</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>4795.3900000000003</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>13.77</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>44.08</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>1074.3800000000001</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>3305.79</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>5331</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>17716.150000000001</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>40.9</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>371.9</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>1792.19</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>206</v>
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>2359.5</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>206</v>
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>95.59</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>1112</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>1774.85</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>9.6199999999999992</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>826.45</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>5.51</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>9504.1299999999992</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>16963.310000000001</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>88</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>1487.6</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>3140.5</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>15.43</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>1343</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>2025</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>11.23</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>2315</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>250</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>0.4</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
         <v>1</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3537,603 +3589,603 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.88671875" style="11" customWidth="1"/>
+    <col min="1" max="5" width="21.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>466</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>381</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>339</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>339</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>220</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>400</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>339</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>220</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>400</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>563</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>407</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>361</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>250</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>800</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>361</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>250</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>800</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>104</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>72</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>104</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>72</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>1.4E-2</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>72</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>110</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>220</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>342</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>400</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>320</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>60</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>78</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>40</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>25</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>350</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>100</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4150,9 +4202,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4244,7 +4296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -4261,7 +4313,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -4278,7 +4330,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -4295,7 +4347,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -4312,7 +4364,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4329,7 +4381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4346,7 +4398,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4363,7 +4415,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4380,7 +4432,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -4397,7 +4449,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4414,7 +4466,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4422,7 +4474,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4514,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -4606,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -4698,7 +4750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -4840,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -4905,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
